--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -436,10 +436,10 @@
         <v>3rd March, 2025</v>
       </c>
       <c r="C2" t="str">
-        <v>06:13 pm</v>
+        <v>03-03-2025 06:13 pm</v>
       </c>
       <c r="D2" t="str">
-        <v>06:13 pm</v>
+        <v>03-03-2025 06:13 pm</v>
       </c>
       <c r="E2">
         <f>D2-C2</f>
@@ -462,10 +462,10 @@
         <v>3rd March, 2025</v>
       </c>
       <c r="C3" t="str">
-        <v>07:14 pm</v>
+        <v>03-03-2025 07:14 pm</v>
       </c>
       <c r="D3" t="str">
-        <v>10:02 pm</v>
+        <v>03-03-2025 10:02 pm</v>
       </c>
       <c r="E3">
         <f>D3-C3</f>
@@ -488,10 +488,10 @@
         <v>3rd March, 2025</v>
       </c>
       <c r="C4" t="str">
-        <v>07:10 pm</v>
+        <v>03-03-2025 07:10 pm</v>
       </c>
       <c r="D4" t="str">
-        <v>07:10 pm</v>
+        <v>03-03-2025 07:10 pm</v>
       </c>
       <c r="E4">
         <f>D4-C4</f>
@@ -514,10 +514,10 @@
         <v>3rd March, 2025</v>
       </c>
       <c r="C5" t="str">
-        <v>10:01 pm</v>
+        <v>03-03-2025 10:01 pm</v>
       </c>
       <c r="D5" t="str">
-        <v>10:01 pm</v>
+        <v>03-03-2025 10:01 pm</v>
       </c>
       <c r="E5">
         <f>D5-C5</f>
